--- a/uniaxial-loading-unloading/time_strain_stress/0d03_2d5.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d03_2d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -91,1971 +91,1971 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.77727272727272723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0156000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>4.2343803249890195</v>
+        <v>4.3537597696421226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.03</v>
+        <v>1.0306</v>
       </c>
       <c r="C4" s="0">
-        <v>6.9028412823891072</v>
+        <v>6.994170300287947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0456000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>9.0993698726394374</v>
+        <v>9.1813097490744582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0606</v>
       </c>
       <c r="C6" s="0">
-        <v>11.035926394378565</v>
+        <v>11.111449609214318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.075</v>
+        <v>1.0756000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>12.783578568291608</v>
+        <v>12.851940765117236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0906</v>
       </c>
       <c r="C8" s="0">
-        <v>14.375325076855509</v>
+        <v>14.437285890580011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.105</v>
+        <v>1.1055999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>15.857258498023711</v>
+        <v>15.912700946112714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1206</v>
       </c>
       <c r="C10" s="0">
-        <v>17.243140799297315</v>
+        <v>17.299036610448379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.135</v>
+        <v>1.1355999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>18.533199121651293</v>
+        <v>18.585981077745785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1506000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>19.742279666227489</v>
+        <v>19.789344302756071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.165</v>
+        <v>1.1656</v>
       </c>
       <c r="C13" s="0">
-        <v>20.884894334650852</v>
+        <v>20.924510900863847</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1806000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>21.968015985946419</v>
+        <v>22.012401480872072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1956</v>
       </c>
       <c r="C15" s="0">
-        <v>22.992176723759325</v>
+        <v>23.0311040723982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.21</v>
+        <v>1.2105999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>23.964186561264814</v>
+        <v>24.004034553681617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2256</v>
       </c>
       <c r="C17" s="0">
-        <v>24.884012648221336</v>
+        <v>24.925308103661045</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.24</v>
+        <v>1.2405999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>25.774584628897671</v>
+        <v>25.804564376799675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2556</v>
       </c>
       <c r="C19" s="0">
-        <v>26.619593851559056</v>
+        <v>26.652068284656526</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.27</v>
+        <v>1.2706</v>
       </c>
       <c r="C20" s="0">
-        <v>27.423633201581019</v>
+        <v>27.456296997120528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2849999999999999</v>
+        <v>1.2856000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>28.197567676767672</v>
+        <v>28.228225421637188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.3</v>
+        <v>1.3006</v>
       </c>
       <c r="C22" s="0">
-        <v>28.947007817303469</v>
+        <v>28.973651172357059</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3155999999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>29.657265700483084</v>
+        <v>29.683894693541756</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3306</v>
       </c>
       <c r="C24" s="0">
-        <v>30.331349143610005</v>
+        <v>30.358038667215144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.345</v>
+        <v>1.3455999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>30.996102064119448</v>
+        <v>31.01892965857672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3606</v>
       </c>
       <c r="C26" s="0">
-        <v>31.632283530961786</v>
+        <v>31.651658576717402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.375</v>
+        <v>1.3755999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>32.243497584541053</v>
+        <v>32.266835047305648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3906000000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>32.827048221343865</v>
+        <v>32.852603044014813</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.405</v>
+        <v>1.4056</v>
       </c>
       <c r="C29" s="0">
-        <v>33.390444620114181</v>
+        <v>33.412990538872897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4205999999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>33.952731664470782</v>
+        <v>33.977012751953929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4356</v>
       </c>
       <c r="C31" s="0">
-        <v>34.482883970136136</v>
+        <v>34.509530234471413</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.45</v>
+        <v>1.4505999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>34.993220026350457</v>
+        <v>35.016327437268615</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.4649999999999999</v>
+        <v>1.4656</v>
       </c>
       <c r="C33" s="0">
-        <v>35.483068774703554</v>
+        <v>35.503285067873307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.48</v>
+        <v>1.4805999999999999</v>
       </c>
       <c r="C34" s="0">
-        <v>35.964642248572673</v>
+        <v>35.986907445495682</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4956</v>
       </c>
       <c r="C35" s="0">
-        <v>36.427398682476934</v>
+        <v>36.447972027972028</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.02</v>
       </c>
       <c r="B36" s="0">
-        <v>1.51</v>
+        <v>1.5105999999999999</v>
       </c>
       <c r="C36" s="0">
-        <v>36.87594800175669</v>
+        <v>36.891912793089276</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
       <c r="B37" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.5255999999999998</v>
       </c>
       <c r="C37" s="0">
-        <v>37.311269038208167</v>
+        <v>37.330761003702179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="B38" s="0">
-        <v>1.54</v>
+        <v>1.5406</v>
       </c>
       <c r="C38" s="0">
-        <v>37.742356785243736</v>
+        <v>37.759661044837515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.52</v>
       </c>
       <c r="B39" s="0">
-        <v>1.5549999999999999</v>
+        <v>1.5556000000000001</v>
       </c>
       <c r="C39" s="0">
-        <v>38.157190865173469</v>
+        <v>38.172646647470181</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.02</v>
       </c>
       <c r="B40" s="0">
-        <v>1.5699999999999998</v>
+        <v>1.5706</v>
       </c>
       <c r="C40" s="0">
-        <v>38.559662714097492</v>
+        <v>38.57668202385851</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="B41" s="0">
-        <v>1.585</v>
+        <v>1.5855999999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>38.952563548528758</v>
+        <v>38.96444672974085</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="B42" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.6006</v>
       </c>
       <c r="C42" s="0">
-        <v>39.32264242424241</v>
+        <v>39.336014808720698</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.5</v>
+        <v>20.52</v>
       </c>
       <c r="B43" s="0">
-        <v>1.615</v>
+        <v>1.6155999999999999</v>
       </c>
       <c r="C43" s="0">
-        <v>39.686861133069826</v>
+        <v>39.697201151789386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>21.02</v>
       </c>
       <c r="B44" s="0">
-        <v>1.6299999999999999</v>
+        <v>1.6305999999999998</v>
       </c>
       <c r="C44" s="0">
-        <v>40.047922880983748</v>
+        <v>40.064972439325381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.5</v>
+        <v>21.52</v>
       </c>
       <c r="B45" s="0">
-        <v>1.645</v>
+        <v>1.6456</v>
       </c>
       <c r="C45" s="0">
-        <v>40.388679666227496</v>
+        <v>40.402476347182244</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>22.02</v>
       </c>
       <c r="B46" s="0">
-        <v>1.6599999999999999</v>
+        <v>1.6606000000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>40.743713131313115</v>
+        <v>40.759334430275608</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.5</v>
+        <v>22.52</v>
       </c>
       <c r="B47" s="0">
-        <v>1.6749999999999998</v>
+        <v>1.6756</v>
       </c>
       <c r="C47" s="0">
-        <v>41.084997804128228</v>
+        <v>41.093875771287536</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="B48" s="0">
-        <v>1.6899999999999999</v>
+        <v>1.6905999999999999</v>
       </c>
       <c r="C48" s="0">
-        <v>41.40473394817743</v>
+        <v>41.421539284245171</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.5</v>
+        <v>23.52</v>
       </c>
       <c r="B49" s="0">
-        <v>1.7050000000000001</v>
+        <v>1.7056</v>
       </c>
       <c r="C49" s="0">
-        <v>41.72025805884936</v>
+        <v>41.733162484574251</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>24.02</v>
       </c>
       <c r="B50" s="0">
-        <v>1.72</v>
+        <v>1.7205999999999999</v>
       </c>
       <c r="C50" s="0">
-        <v>42.027045586297746</v>
+        <v>42.041648704236941</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.5</v>
+        <v>24.52</v>
       </c>
       <c r="B51" s="0">
-        <v>1.7349999999999999</v>
+        <v>1.7355999999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>42.32306490996924</v>
+        <v>42.332282188399844</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>25.02</v>
       </c>
       <c r="B52" s="0">
-        <v>1.75</v>
+        <v>1.7505999999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>42.631972595520409</v>
+        <v>42.637708761826424</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.5</v>
+        <v>25.52</v>
       </c>
       <c r="B53" s="0">
-        <v>1.7650000000000001</v>
+        <v>1.7656000000000001</v>
       </c>
       <c r="C53" s="0">
-        <v>42.920520509442241</v>
+        <v>42.930422871246407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>26.02</v>
       </c>
       <c r="B54" s="0">
-        <v>1.78</v>
+        <v>1.7806</v>
       </c>
       <c r="C54" s="0">
-        <v>43.20638998682476</v>
+        <v>43.215341834635957</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.5</v>
+        <v>26.52</v>
       </c>
       <c r="B55" s="0">
-        <v>1.7949999999999999</v>
+        <v>1.7955999999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>43.480303557312247</v>
+        <v>43.489781160016456</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="B56" s="0">
-        <v>1.8100000000000001</v>
+        <v>1.8106</v>
       </c>
       <c r="C56" s="0">
-        <v>43.760594642072903</v>
+        <v>43.772188399835457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.5</v>
+        <v>27.52</v>
       </c>
       <c r="B57" s="0">
-        <v>1.825</v>
+        <v>1.8256000000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>44.030410891523921</v>
+        <v>44.047096668037852</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>28.02</v>
       </c>
       <c r="B58" s="0">
-        <v>1.8399999999999999</v>
+        <v>1.8405999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>44.307968203776895</v>
+        <v>44.312970793911987</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.5</v>
+        <v>28.52</v>
       </c>
       <c r="B59" s="0">
-        <v>1.855</v>
+        <v>1.8555999999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>44.56365516029863</v>
+        <v>44.577317976141515</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>29.02</v>
       </c>
       <c r="B60" s="0">
-        <v>1.8700000000000001</v>
+        <v>1.8706</v>
       </c>
       <c r="C60" s="0">
-        <v>44.8169869126043</v>
+        <v>44.827569724393257</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.5</v>
+        <v>29.52</v>
       </c>
       <c r="B61" s="0">
-        <v>1.885</v>
+        <v>1.8855999999999999</v>
       </c>
       <c r="C61" s="0">
-        <v>45.072679139218266</v>
+        <v>45.080646647470182</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>30.02</v>
       </c>
       <c r="B62" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.9005999999999998</v>
       </c>
       <c r="C62" s="0">
-        <v>45.304748177426426</v>
+        <v>45.313162484574249</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.5</v>
+        <v>30.52</v>
       </c>
       <c r="B63" s="0">
-        <v>1.915</v>
+        <v>1.9156</v>
       </c>
       <c r="C63" s="0">
-        <v>45.551253579270949</v>
+        <v>45.559641299876603</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>31.02</v>
       </c>
       <c r="B64" s="0">
-        <v>1.9299999999999999</v>
+        <v>1.9306000000000001</v>
       </c>
       <c r="C64" s="0">
-        <v>45.794266842336405</v>
+        <v>45.804657342657343</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.5</v>
+        <v>31.52</v>
       </c>
       <c r="B65" s="0">
-        <v>1.9449999999999998</v>
+        <v>1.9456</v>
       </c>
       <c r="C65" s="0">
-        <v>46.029968906455849</v>
+        <v>46.035109008638429</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="B66" s="0">
-        <v>1.96</v>
+        <v>1.9605999999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>46.259464382960026</v>
+        <v>46.270369395310574</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.5</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="B67" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.9756</v>
       </c>
       <c r="C67" s="0">
-        <v>46.486501185770742</v>
+        <v>46.499732620320856</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="B68" s="0">
-        <v>1.99</v>
+        <v>1.9906000000000001</v>
       </c>
       <c r="C68" s="0">
-        <v>46.708333421168199</v>
+        <v>46.71893459481695</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.5</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="B69" s="0">
-        <v>2.0049999999999999</v>
+        <v>2.0056000000000003</v>
       </c>
       <c r="C69" s="0">
-        <v>46.928620114185307</v>
+        <v>46.932949403537641</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>34</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="B70" s="0">
-        <v>2.02</v>
+        <v>2.0206</v>
       </c>
       <c r="C70" s="0">
-        <v>47.156606060606052</v>
+        <v>47.166881118881122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.5</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="B71" s="0">
-        <v>2.0350000000000001</v>
+        <v>2.0356000000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>47.36375722441808</v>
+        <v>47.373675030851508</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>35</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="B72" s="0">
-        <v>2.0499999999999998</v>
+        <v>2.0506000000000002</v>
       </c>
       <c r="C72" s="0">
-        <v>47.579677470355719</v>
+        <v>47.590922254216373</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.5</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="B73" s="0">
-        <v>2.0649999999999999</v>
+        <v>2.0655999999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>47.797549055775136</v>
+        <v>47.806600575894706</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>36</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="B74" s="0">
-        <v>2.0800000000000001</v>
+        <v>2.0806</v>
       </c>
       <c r="C74" s="0">
-        <v>48.004980237154129</v>
+        <v>48.011789387083503</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.5</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="B75" s="0">
-        <v>2.0949999999999998</v>
+        <v>2.0956000000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>48.201629336846729</v>
+        <v>48.209467708761828</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>37</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="B76" s="0">
-        <v>2.1099999999999999</v>
+        <v>2.1105999999999998</v>
       </c>
       <c r="C76" s="0">
-        <v>48.402800702678952</v>
+        <v>48.412453311394493</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.5</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="B77" s="0">
-        <v>2.125</v>
+        <v>2.1256000000000004</v>
       </c>
       <c r="C77" s="0">
-        <v>48.610014229248996</v>
+        <v>48.616468120115194</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>38</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="B78" s="0">
-        <v>2.1399999999999997</v>
+        <v>2.1406000000000001</v>
       </c>
       <c r="C78" s="0">
-        <v>48.810691260430389</v>
+        <v>48.813130399012756</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.5</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="B79" s="0">
-        <v>2.1550000000000002</v>
+        <v>2.1555999999999997</v>
       </c>
       <c r="C79" s="0">
-        <v>49.004947738252085</v>
+        <v>49.013557383792694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>39</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="B80" s="0">
-        <v>2.1699999999999999</v>
+        <v>2.1706000000000003</v>
       </c>
       <c r="C80" s="0">
-        <v>49.202937022397883</v>
+        <v>49.211779514603066</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.5</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1850000000000001</v>
+        <v>2.1856</v>
       </c>
       <c r="C81" s="0">
-        <v>49.398590250329377</v>
+        <v>49.406359522830115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>40</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2000000000000002</v>
+        <v>2.2006000000000001</v>
       </c>
       <c r="C82" s="0">
-        <v>49.580238910847612</v>
+        <v>49.586921431509666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.5</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2149999999999999</v>
+        <v>2.2156000000000002</v>
       </c>
       <c r="C83" s="0">
-        <v>49.769262714097493</v>
+        <v>49.776432743726865</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>41.020000000000003</v>
       </c>
       <c r="B84" s="0">
-        <v>2.23</v>
+        <v>2.2305999999999999</v>
       </c>
       <c r="C84" s="0">
-        <v>49.959779885814662</v>
+        <v>49.969971205265331</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.5</v>
+        <v>41.520000000000003</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2450000000000001</v>
+        <v>2.2456</v>
       </c>
       <c r="C85" s="0">
-        <v>50.141289767237581</v>
+        <v>50.149179761415063</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>42</v>
+        <v>42.020000000000003</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2599999999999998</v>
+        <v>2.2606000000000002</v>
       </c>
       <c r="C86" s="0">
-        <v>50.327994905577498</v>
+        <v>50.3382262443439</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.5</v>
+        <v>42.520000000000003</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2749999999999999</v>
+        <v>2.2755999999999998</v>
       </c>
       <c r="C87" s="0">
-        <v>50.505094422485698</v>
+        <v>50.509073632250107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>43</v>
+        <v>43.020000000000003</v>
       </c>
       <c r="B88" s="0">
-        <v>2.29</v>
+        <v>2.2906</v>
       </c>
       <c r="C88" s="0">
-        <v>50.689818533157641</v>
+        <v>50.694452488687787</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.5</v>
+        <v>43.520000000000003</v>
       </c>
       <c r="B89" s="0">
-        <v>2.3049999999999997</v>
+        <v>2.3056000000000001</v>
       </c>
       <c r="C89" s="0">
-        <v>50.870313921826956</v>
+        <v>50.879480049362407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>44</v>
+        <v>44.020000000000003</v>
       </c>
       <c r="B90" s="0">
-        <v>2.3199999999999998</v>
+        <v>2.3205999999999998</v>
       </c>
       <c r="C90" s="0">
-        <v>51.045151515151503</v>
+        <v>51.053803373097509</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.5</v>
+        <v>44.520000000000003</v>
       </c>
       <c r="B91" s="0">
-        <v>2.335</v>
+        <v>2.3356000000000003</v>
       </c>
       <c r="C91" s="0">
-        <v>51.232566007905135</v>
+        <v>51.241703825586193</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>45</v>
+        <v>45.020000000000003</v>
       </c>
       <c r="B92" s="0">
-        <v>2.3499999999999996</v>
+        <v>2.3506</v>
       </c>
       <c r="C92" s="0">
-        <v>51.403284848484837</v>
+        <v>51.409947346770885</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.5</v>
+        <v>45.520000000000003</v>
       </c>
       <c r="B93" s="0">
-        <v>2.3650000000000002</v>
+        <v>2.3656000000000001</v>
       </c>
       <c r="C93" s="0">
-        <v>51.581291523934986</v>
+        <v>51.599487453722759</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>46</v>
+        <v>46.020000000000003</v>
       </c>
       <c r="B94" s="0">
-        <v>2.3799999999999999</v>
+        <v>2.3806000000000003</v>
       </c>
       <c r="C94" s="0">
-        <v>51.755947299077711</v>
+        <v>51.765570547099962</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.5</v>
+        <v>46.520000000000003</v>
       </c>
       <c r="B95" s="0">
-        <v>2.395</v>
+        <v>2.3956</v>
       </c>
       <c r="C95" s="0">
-        <v>51.915784980237149</v>
+        <v>51.920750308515018</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>47</v>
+        <v>47.020000000000003</v>
       </c>
       <c r="B96" s="0">
-        <v>2.4100000000000001</v>
+        <v>2.4106000000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>52.088846903820802</v>
+        <v>52.096292883586997</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.5</v>
+        <v>47.520000000000003</v>
       </c>
       <c r="B97" s="0">
-        <v>2.4249999999999998</v>
+        <v>2.4256000000000002</v>
       </c>
       <c r="C97" s="0">
-        <v>52.260342555994718</v>
+        <v>52.267097490744561</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48</v>
+        <v>48.020000000000003</v>
       </c>
       <c r="B98" s="0">
-        <v>2.4399999999999999</v>
+        <v>2.4405999999999999</v>
       </c>
       <c r="C98" s="0">
-        <v>52.42697742643827</v>
+        <v>52.433068696009876</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.5</v>
+        <v>48.520000000000003</v>
       </c>
       <c r="B99" s="0">
-        <v>2.4550000000000001</v>
+        <v>2.4556</v>
       </c>
       <c r="C99" s="0">
-        <v>52.602229951690809</v>
+        <v>52.605010283833806</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>49</v>
+        <v>49.020000000000003</v>
       </c>
       <c r="B100" s="0">
-        <v>2.4699999999999998</v>
+        <v>2.4706000000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>52.768574264382941</v>
+        <v>52.771201974496101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.5</v>
+        <v>49.520000000000003</v>
       </c>
       <c r="B101" s="0">
-        <v>2.4849999999999999</v>
+        <v>2.4855999999999998</v>
       </c>
       <c r="C101" s="0">
-        <v>52.931179270970567</v>
+        <v>52.940939531057182</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>50</v>
+        <v>50.000999999999998</v>
       </c>
       <c r="B102" s="0">
-        <v>2.4699999999999998</v>
+        <v>2.4711699999999999</v>
       </c>
       <c r="C102" s="0">
-        <v>53.040909090909089</v>
+        <v>52.231222013280835</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.468000000000004</v>
+        <v>50.488</v>
       </c>
       <c r="B103" s="0">
-        <v>2.4559599999999997</v>
+        <v>2.4565600000000001</v>
       </c>
       <c r="C103" s="0">
-        <v>51.536557751427296</v>
+        <v>51.487243184622876</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>50.968000000000004</v>
+        <v>50.988</v>
       </c>
       <c r="B104" s="0">
-        <v>2.4409599999999996</v>
+        <v>2.44156</v>
       </c>
       <c r="C104" s="0">
-        <v>50.389436659080914</v>
+        <v>50.349081934108689</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.468000000000004</v>
+        <v>51.488</v>
       </c>
       <c r="B105" s="0">
-        <v>2.4259599999999999</v>
+        <v>2.4265599999999998</v>
       </c>
       <c r="C105" s="0">
-        <v>49.414245298838175</v>
+        <v>49.377057327699042</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>51.968000000000004</v>
+        <v>51.988</v>
       </c>
       <c r="B106" s="0">
-        <v>2.4109599999999998</v>
+        <v>2.4115599999999997</v>
       </c>
       <c r="C106" s="0">
-        <v>48.545084361400541</v>
+        <v>48.51205863655062</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.468000000000004</v>
+        <v>52.488</v>
       </c>
       <c r="B107" s="0">
-        <v>2.3959599999999996</v>
+        <v>2.39656</v>
       </c>
       <c r="C107" s="0">
-        <v>47.724995568331522</v>
+        <v>47.692685389476836</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>52.968000000000004</v>
+        <v>52.988</v>
       </c>
       <c r="B108" s="0">
-        <v>2.38096</v>
+        <v>2.3815599999999999</v>
       </c>
       <c r="C108" s="0">
-        <v>46.94088625384277</v>
+        <v>46.91070304027523</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>53.468000000000004</v>
+        <v>53.488</v>
       </c>
       <c r="B109" s="0">
-        <v>2.3659599999999998</v>
+        <v>2.3665599999999998</v>
       </c>
       <c r="C109" s="0">
-        <v>46.200985746796007</v>
+        <v>46.171737033020456</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>53.968000000000004</v>
+        <v>53.988</v>
       </c>
       <c r="B110" s="0">
-        <v>2.3509599999999997</v>
+        <v>2.3515600000000001</v>
       </c>
       <c r="C110" s="0">
-        <v>45.47735417415258</v>
+        <v>45.448111140196708</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>54.468000000000004</v>
+        <v>54.488</v>
       </c>
       <c r="B111" s="0">
-        <v>2.3359599999999996</v>
+        <v>2.33656</v>
       </c>
       <c r="C111" s="0">
-        <v>44.781732023795257</v>
+        <v>44.753841292397446</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>54.968000000000004</v>
+        <v>54.988</v>
       </c>
       <c r="B112" s="0">
-        <v>2.3209599999999999</v>
+        <v>2.3215599999999998</v>
       </c>
       <c r="C112" s="0">
-        <v>44.112107957040763</v>
+        <v>44.086354287423809</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>55.468000000000004</v>
+        <v>55.488</v>
       </c>
       <c r="B113" s="0">
-        <v>2.3059599999999998</v>
+        <v>2.3065599999999997</v>
       </c>
       <c r="C113" s="0">
-        <v>43.450827484329459</v>
+        <v>43.424428405818787</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>55.968000000000004</v>
+        <v>55.988</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2909599999999997</v>
+        <v>2.29156</v>
       </c>
       <c r="C114" s="0">
-        <v>42.806312292889366</v>
+        <v>42.78049212819267</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.468000000000004</v>
+        <v>56.488</v>
       </c>
       <c r="B115" s="0">
-        <v>2.27596</v>
+        <v>2.2765599999999999</v>
       </c>
       <c r="C115" s="0">
-        <v>42.176110432387098</v>
+        <v>42.149774877528898</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>56.968000000000004</v>
+        <v>56.988</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2609599999999999</v>
+        <v>2.2615599999999998</v>
       </c>
       <c r="C116" s="0">
-        <v>41.54652181898031</v>
+        <v>41.521489473093759</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>57.468000000000004</v>
+        <v>57.488</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2459599999999997</v>
+        <v>2.2465600000000001</v>
       </c>
       <c r="C117" s="0">
-        <v>40.945031021679227</v>
+        <v>40.920350024307247</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>57.968000000000004</v>
+        <v>57.988</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2309599999999996</v>
+        <v>2.23156</v>
       </c>
       <c r="C118" s="0">
-        <v>40.344354613326928</v>
+        <v>40.320569537414471</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>58.468000000000004</v>
+        <v>58.488</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2159599999999999</v>
+        <v>2.2165599999999999</v>
       </c>
       <c r="C119" s="0">
-        <v>39.750836427516262</v>
+        <v>39.72815975468383</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>58.968000000000004</v>
+        <v>58.988</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2009599999999998</v>
+        <v>2.2015599999999997</v>
       </c>
       <c r="C120" s="0">
-        <v>39.15368882500897</v>
+        <v>39.131292023484541</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>59.468000000000004</v>
+        <v>59.488</v>
       </c>
       <c r="B121" s="0">
-        <v>2.1859599999999997</v>
+        <v>2.1865600000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>38.574404679203091</v>
+        <v>38.550385550278598</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>59.968000000000004</v>
+        <v>59.988</v>
       </c>
       <c r="B122" s="0">
-        <v>2.17096</v>
+        <v>2.1715599999999999</v>
       </c>
       <c r="C122" s="0">
-        <v>37.992915159500129</v>
+        <v>37.969111102800944</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>60.468000000000004</v>
+        <v>60.488</v>
       </c>
       <c r="B123" s="0">
-        <v>2.1559599999999999</v>
+        <v>2.1565599999999998</v>
       </c>
       <c r="C123" s="0">
-        <v>37.41993835589092</v>
+        <v>37.398409184398488</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>60.968000000000004</v>
+        <v>60.988</v>
       </c>
       <c r="B124" s="0">
-        <v>2.1409599999999998</v>
+        <v>2.1415600000000001</v>
       </c>
       <c r="C124" s="0">
-        <v>36.852830917874392</v>
+        <v>36.830236715156509</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>61.468000000000004</v>
+        <v>61.488</v>
       </c>
       <c r="B125" s="0">
-        <v>2.1259599999999996</v>
+        <v>2.12656</v>
       </c>
       <c r="C125" s="0">
-        <v>36.284789795185048</v>
+        <v>36.26186268277177</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>61.968000000000004</v>
+        <v>61.988</v>
       </c>
       <c r="B126" s="0">
-        <v>2.1109599999999999</v>
+        <v>2.1115599999999999</v>
       </c>
       <c r="C126" s="0">
-        <v>35.722021878867722</v>
+        <v>35.698799222168212</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>62.468000000000004</v>
+        <v>62.488</v>
       </c>
       <c r="B127" s="0">
-        <v>2.0959599999999998</v>
+        <v>2.0965599999999998</v>
       </c>
       <c r="C127" s="0">
-        <v>35.16033584860461</v>
+        <v>35.136939905014771</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>62.968000000000004</v>
+        <v>62.988</v>
       </c>
       <c r="B128" s="0">
-        <v>2.0809599999999997</v>
+        <v>2.0815600000000001</v>
       </c>
       <c r="C128" s="0">
-        <v>34.609014652453375</v>
+        <v>34.58878202011892</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>63.468000000000004</v>
+        <v>63.488</v>
       </c>
       <c r="B129" s="0">
-        <v>2.0659599999999996</v>
+        <v>2.06656</v>
       </c>
       <c r="C129" s="0">
-        <v>34.058074020840806</v>
+        <v>34.036451516398053</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>63.968000000000004</v>
+        <v>63.988</v>
       </c>
       <c r="B130" s="0">
-        <v>2.0509599999999999</v>
+        <v>2.0515599999999998</v>
       </c>
       <c r="C130" s="0">
-        <v>33.499510360522208</v>
+        <v>33.475743240716504</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>64.468000000000004</v>
+        <v>64.488</v>
       </c>
       <c r="B131" s="0">
-        <v>2.0359599999999998</v>
+        <v>2.0365599999999997</v>
       </c>
       <c r="C131" s="0">
-        <v>32.950268135904501</v>
+        <v>32.927914064545085</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>64.968000000000004</v>
+        <v>64.988</v>
       </c>
       <c r="B132" s="0">
-        <v>2.0209599999999996</v>
+        <v>2.02156</v>
       </c>
       <c r="C132" s="0">
-        <v>32.400384876432298</v>
+        <v>32.379529935305335</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>65.468000000000004</v>
+        <v>65.488</v>
       </c>
       <c r="B133" s="0">
-        <v>2.00596</v>
+        <v>2.0065599999999999</v>
       </c>
       <c r="C133" s="0">
-        <v>31.850737174112659</v>
+        <v>31.826806028196401</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>65.968000000000004</v>
+        <v>65.988</v>
       </c>
       <c r="B134" s="0">
-        <v>1.9909599999999998</v>
+        <v>1.99156</v>
       </c>
       <c r="C134" s="0">
-        <v>31.302327703916632</v>
+        <v>31.27959575184175</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>66.468000000000004</v>
+        <v>66.488</v>
       </c>
       <c r="B135" s="0">
-        <v>1.9759599999999997</v>
+        <v>1.9765600000000001</v>
       </c>
       <c r="C135" s="0">
-        <v>30.744783646744114</v>
+        <v>30.722703713398904</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>66.968000000000004</v>
+        <v>66.988</v>
       </c>
       <c r="B136" s="0">
-        <v>1.9609599999999998</v>
+        <v>1.96156</v>
       </c>
       <c r="C136" s="0">
-        <v>30.199664790194429</v>
+        <v>30.178212856662061</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>67.468000000000004</v>
+        <v>67.488</v>
       </c>
       <c r="B137" s="0">
-        <v>1.9459599999999999</v>
+        <v>1.9465599999999998</v>
       </c>
       <c r="C137" s="0">
-        <v>29.652973050664745</v>
+        <v>29.631499195991182</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>67.968000000000004</v>
+        <v>67.988</v>
       </c>
       <c r="B138" s="0">
-        <v>1.9309599999999998</v>
+        <v>1.9315599999999999</v>
       </c>
       <c r="C138" s="0">
-        <v>29.098450033936196</v>
+        <v>29.076275382371644</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>68.468000000000004</v>
+        <v>68.488</v>
       </c>
       <c r="B139" s="0">
-        <v>1.9159599999999997</v>
+        <v>1.91656</v>
       </c>
       <c r="C139" s="0">
-        <v>28.541041002914515</v>
+        <v>28.519409894917924</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>68.968000000000004</v>
+        <v>68.988</v>
       </c>
       <c r="B140" s="0">
-        <v>1.9009599999999998</v>
+        <v>1.9015599999999999</v>
       </c>
       <c r="C140" s="0">
-        <v>27.989378049267373</v>
+        <v>27.966858382259453</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>69.468000000000004</v>
+        <v>69.488</v>
       </c>
       <c r="B141" s="0">
-        <v>1.8859599999999999</v>
+        <v>1.8865599999999998</v>
       </c>
       <c r="C141" s="0">
-        <v>27.428942148760324</v>
+        <v>27.405531206761161</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>69.968000000000004</v>
+        <v>69.988</v>
       </c>
       <c r="B142" s="0">
-        <v>1.8709599999999997</v>
+        <v>1.8715599999999999</v>
       </c>
       <c r="C142" s="0">
-        <v>26.877214995807876</v>
+        <v>26.856666915971736</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>70.468000000000004</v>
+        <v>70.488</v>
       </c>
       <c r="B143" s="0">
-        <v>1.8559599999999998</v>
+        <v>1.85656</v>
       </c>
       <c r="C143" s="0">
-        <v>26.308083283427152</v>
+        <v>26.284837141468163</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>70.968000000000004</v>
+        <v>70.988</v>
       </c>
       <c r="B144" s="0">
-        <v>1.8409599999999999</v>
+        <v>1.8415599999999999</v>
       </c>
       <c r="C144" s="0">
-        <v>25.74569545254921</v>
+        <v>25.722958378519877</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>71.468000000000004</v>
+        <v>71.488</v>
       </c>
       <c r="B145" s="0">
-        <v>1.8259599999999998</v>
+        <v>1.82656</v>
       </c>
       <c r="C145" s="0">
-        <v>25.167354174152589</v>
+        <v>25.14422272914252</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>71.968000000000004</v>
+        <v>71.988</v>
       </c>
       <c r="B146" s="0">
-        <v>1.8109599999999997</v>
+        <v>1.8115600000000001</v>
       </c>
       <c r="C146" s="0">
-        <v>24.602858945183048</v>
+        <v>24.578176582775516</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>72.468000000000004</v>
+        <v>72.488</v>
       </c>
       <c r="B147" s="0">
-        <v>1.7959599999999998</v>
+        <v>1.7965599999999999</v>
       </c>
       <c r="C147" s="0">
-        <v>24.016865971972688</v>
+        <v>23.992386223402271</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>72.968000000000004</v>
+        <v>72.988</v>
       </c>
       <c r="B148" s="0">
-        <v>1.7809599999999999</v>
+        <v>1.7815599999999998</v>
       </c>
       <c r="C148" s="0">
-        <v>23.442364913961747</v>
+        <v>23.419505254104187</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>73.468000000000004</v>
+        <v>73.488</v>
       </c>
       <c r="B149" s="0">
-        <v>1.7659599999999998</v>
+        <v>1.7665599999999999</v>
       </c>
       <c r="C149" s="0">
-        <v>22.859946340879144</v>
+        <v>22.834751879136913</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>73.968000000000004</v>
+        <v>73.988</v>
       </c>
       <c r="B150" s="0">
-        <v>1.7509599999999998</v>
+        <v>1.75156</v>
       </c>
       <c r="C150" s="0">
-        <v>22.26429384756657</v>
+        <v>22.239424105306462</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>74.468000000000004</v>
+        <v>74.488</v>
       </c>
       <c r="B151" s="0">
-        <v>1.7359599999999999</v>
+        <v>1.7365599999999999</v>
       </c>
       <c r="C151" s="0">
-        <v>21.676693815626614</v>
+        <v>21.653873452750464</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>74.968000000000004</v>
+        <v>74.988</v>
       </c>
       <c r="B152" s="0">
-        <v>1.7209599999999998</v>
+        <v>1.72156</v>
       </c>
       <c r="C152" s="0">
-        <v>21.077392022996769</v>
+        <v>21.054580232601626</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>75.468000000000004</v>
+        <v>75.488</v>
       </c>
       <c r="B153" s="0">
-        <v>1.7059599999999997</v>
+        <v>1.7065600000000001</v>
       </c>
       <c r="C153" s="0">
-        <v>20.48190449954086</v>
+        <v>20.4567787292921</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>75.968000000000004</v>
+        <v>75.988</v>
       </c>
       <c r="B154" s="0">
-        <v>1.6909599999999998</v>
+        <v>1.69156</v>
       </c>
       <c r="C154" s="0">
-        <v>19.862104922745232</v>
+        <v>19.83945813544744</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>76.468000000000004</v>
+        <v>76.488</v>
       </c>
       <c r="B155" s="0">
-        <v>1.6759599999999999</v>
+        <v>1.6765599999999998</v>
       </c>
       <c r="C155" s="0">
-        <v>19.249715494869644</v>
+        <v>19.224598930481289</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>76.968000000000004</v>
+        <v>76.988</v>
       </c>
       <c r="B156" s="0">
-        <v>1.6609599999999998</v>
+        <v>1.6615599999999999</v>
       </c>
       <c r="C156" s="0">
-        <v>18.623253962550404</v>
+        <v>18.599385587674362</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>77.468000000000004</v>
+        <v>77.488</v>
       </c>
       <c r="B157" s="0">
-        <v>1.6459599999999996</v>
+        <v>1.64656</v>
       </c>
       <c r="C157" s="0">
-        <v>18.000117459176749</v>
+        <v>17.975198758460792</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>77.968000000000004</v>
+        <v>77.988</v>
       </c>
       <c r="B158" s="0">
-        <v>1.63096</v>
+        <v>1.6315599999999999</v>
       </c>
       <c r="C158" s="0">
-        <v>17.352292729668221</v>
+        <v>17.325766052129687</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>78.468000000000004</v>
+        <v>78.488</v>
       </c>
       <c r="B159" s="0">
-        <v>1.6159599999999998</v>
+        <v>1.61656</v>
       </c>
       <c r="C159" s="0">
-        <v>16.708285782728467</v>
+        <v>16.683129277139976</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>78.968000000000004</v>
+        <v>78.988</v>
       </c>
       <c r="B160" s="0">
-        <v>1.6009599999999997</v>
+        <v>1.6015600000000001</v>
       </c>
       <c r="C160" s="0">
-        <v>16.056457459975245</v>
+        <v>16.029405781384391</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>79.468000000000004</v>
+        <v>79.488</v>
       </c>
       <c r="B161" s="0">
-        <v>1.5859599999999998</v>
+        <v>1.58656</v>
       </c>
       <c r="C161" s="0">
-        <v>15.403179382760406</v>
+        <v>15.37686025204742</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>79.968000000000004</v>
+        <v>79.988</v>
       </c>
       <c r="B162" s="0">
-        <v>1.5709599999999999</v>
+        <v>1.5715599999999998</v>
       </c>
       <c r="C162" s="0">
-        <v>14.728711382600707</v>
+        <v>14.701221345499421</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>80.468000000000004</v>
+        <v>80.488</v>
       </c>
       <c r="B163" s="0">
-        <v>1.5559599999999998</v>
+        <v>1.5565599999999999</v>
       </c>
       <c r="C163" s="0">
-        <v>14.048605421807</v>
+        <v>14.021413933659925</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>80.968000000000004</v>
+        <v>80.988</v>
       </c>
       <c r="B164" s="0">
-        <v>1.5409599999999997</v>
+        <v>1.54156</v>
       </c>
       <c r="C164" s="0">
-        <v>13.364468399409109</v>
+        <v>13.336348304102319</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>81.468000000000004</v>
+        <v>81.488</v>
       </c>
       <c r="B165" s="0">
-        <v>1.5259599999999998</v>
+        <v>1.5265599999999999</v>
       </c>
       <c r="C165" s="0">
-        <v>12.656653092186687</v>
+        <v>12.626807150069185</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>81.968000000000004</v>
+        <v>81.988</v>
       </c>
       <c r="B166" s="0">
-        <v>1.5109599999999999</v>
+        <v>1.5115599999999998</v>
       </c>
       <c r="C166" s="0">
-        <v>11.953203417574958</v>
+        <v>11.925531954676339</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>82.468000000000004</v>
+        <v>82.488</v>
       </c>
       <c r="B167" s="0">
-        <v>1.4959599999999997</v>
+        <v>1.4965600000000001</v>
       </c>
       <c r="C167" s="0">
-        <v>11.243063121331891</v>
+        <v>11.212772895553648</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>82.968000000000004</v>
+        <v>82.988</v>
       </c>
       <c r="B168" s="0">
-        <v>1.4809599999999998</v>
+        <v>1.48156</v>
       </c>
       <c r="C168" s="0">
-        <v>10.503238311973488</v>
+        <v>10.475238397965674</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>83.468000000000004</v>
+        <v>83.488</v>
       </c>
       <c r="B169" s="0">
-        <v>1.4659599999999997</v>
+        <v>1.4665599999999999</v>
       </c>
       <c r="C169" s="0">
-        <v>9.7492973210364493</v>
+        <v>9.7193840918439829</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>83.968000000000004</v>
+        <v>83.988</v>
       </c>
       <c r="B170" s="0">
-        <v>1.4509599999999998</v>
+        <v>1.45156</v>
       </c>
       <c r="C170" s="0">
-        <v>9.0001684034016023</v>
+        <v>8.9708604764219757</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>84.468000000000004</v>
+        <v>84.488</v>
       </c>
       <c r="B171" s="0">
-        <v>1.4359599999999999</v>
+        <v>1.4365600000000001</v>
       </c>
       <c r="C171" s="0">
-        <v>8.2309284944304686</v>
+        <v>8.1993728731161895</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>84.968000000000004</v>
+        <v>84.988</v>
       </c>
       <c r="B172" s="0">
-        <v>1.4209599999999998</v>
+        <v>1.4215599999999999</v>
       </c>
       <c r="C172" s="0">
-        <v>7.4493451511159012</v>
+        <v>7.4190980142851819</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>85.468000000000004</v>
+        <v>85.488</v>
       </c>
       <c r="B173" s="0">
-        <v>1.4059599999999999</v>
+        <v>1.40656</v>
       </c>
       <c r="C173" s="0">
-        <v>6.6458903661117095</v>
+        <v>6.6146505366291475</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>85.968000000000004</v>
+        <v>85.988</v>
       </c>
       <c r="B174" s="0">
-        <v>1.3909599999999998</v>
+        <v>1.3915599999999999</v>
       </c>
       <c r="C174" s="0">
-        <v>5.8279797979797978</v>
+        <v>5.7931588197898369</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>86.468000000000004</v>
+        <v>86.488</v>
       </c>
       <c r="B175" s="0">
-        <v>1.3759599999999998</v>
+        <v>1.37656</v>
       </c>
       <c r="C175" s="0">
-        <v>5.0079230247135378</v>
+        <v>4.9768385625070133</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>86.968000000000004</v>
+        <v>86.988</v>
       </c>
       <c r="B176" s="0">
-        <v>1.3609599999999997</v>
+        <v>1.3615599999999999</v>
       </c>
       <c r="C176" s="0">
-        <v>4.1698172236195941</v>
+        <v>4.1373400396395059</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>87.468000000000004</v>
+        <v>87.488</v>
       </c>
       <c r="B177" s="0">
-        <v>1.3459599999999998</v>
+        <v>1.34656</v>
       </c>
       <c r="C177" s="0">
-        <v>3.2986796023475859</v>
+        <v>3.2624980367226364</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>87.968000000000004</v>
+        <v>87.988</v>
       </c>
       <c r="B178" s="0">
-        <v>1.3309599999999999</v>
+        <v>1.3315599999999999</v>
       </c>
       <c r="C178" s="0">
-        <v>2.4204417295484482</v>
+        <v>2.3848980965558511</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>88.468000000000004</v>
+        <v>88.488</v>
       </c>
       <c r="B179" s="0">
-        <v>1.3159599999999998</v>
+        <v>1.31656</v>
       </c>
       <c r="C179" s="0">
-        <v>1.5237427236794825</v>
+        <v>1.4911147675853562</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>88.968000000000004</v>
+        <v>88.988</v>
       </c>
       <c r="B180" s="0">
-        <v>1.3009599999999999</v>
+        <v>1.3015600000000001</v>
       </c>
       <c r="C180" s="0">
-        <v>0.61172611490398032</v>
+        <v>0.62362916495269449</v>
       </c>
     </row>
   </sheetData>
